--- a/Class_IV/Half Yearly Exam -2023_class_IV.xlsx
+++ b/Class_IV/Half Yearly Exam -2023_class_IV.xlsx
@@ -68,7 +68,7 @@
     <t>Offline</t>
   </si>
   <si>
-    <t>English II</t>
+    <t>Computer</t>
   </si>
   <si>
     <t>Evaluating</t>
@@ -89,7 +89,10 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Moral Science</t>
+    <t>EVS</t>
+  </si>
+  <si>
+    <t>English II</t>
   </si>
   <si>
     <t>English I</t>
@@ -98,22 +101,19 @@
     <t>General Knowledge</t>
   </si>
   <si>
-    <t>Assamese</t>
+    <t>Moral Science</t>
   </si>
   <si>
-    <t>EVS</t>
-  </si>
-  <si>
-    <t>Computer</t>
+    <t>Assamese</t>
   </si>
   <si>
     <t>Hindi</t>
   </si>
   <si>
-    <t>Drawing</t>
+    <t>Maths</t>
   </si>
   <si>
-    <t>Maths</t>
+    <t>Drawing</t>
   </si>
   <si>
     <t>Jagrity Mahato</t>
@@ -122,19 +122,19 @@
     <t>Ayush Rajak</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Mandeep Barman</t>
   </si>
   <si>
-    <t>Mandeep Barman</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>Chinmoy Boro</t>
   </si>
   <si>
-    <t>Anjali Kumari</t>
+    <t>Pratiksha Chetri</t>
   </si>
   <si>
-    <t>Pratiksha Chetri</t>
+    <t>Anjali Kumari</t>
   </si>
   <si>
     <t>Rupesh Barwa</t>
@@ -155,10 +155,10 @@
     <t>Rohan Gaudel</t>
   </si>
   <si>
-    <t>Abhik Joshi</t>
+    <t>Akansha Kumari</t>
   </si>
   <si>
-    <t>Akansha Kumari</t>
+    <t>Abhik Joshi</t>
   </si>
   <si>
     <t>Ayush Boro</t>
@@ -596,10 +596,10 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0</v>
+        <v>95.5</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -640,10 +640,10 @@
         <v>18</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.0</v>
+        <v>96.0</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.0</v>
+        <v>49.0</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -728,10 +728,10 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.0</v>
+        <v>99.0</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
@@ -772,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>97.0</v>
+        <v>50.0</v>
       </c>
       <c r="N6" t="s">
         <v>23</v>
@@ -816,10 +816,10 @@
         <v>18</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.0</v>
+        <v>50.0</v>
       </c>
       <c r="N7" t="s">
         <v>23</v>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>95.5</v>
+        <v>97.0</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -948,10 +948,10 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -969,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.0</v>
+        <v>98.0</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
@@ -992,10 +992,10 @@
         <v>18</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>98.0</v>
+        <v>36.0</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -1030,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1074,16 +1074,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>50.0</v>
+        <v>92.0</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
@@ -1118,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1145,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="N14" t="s">
         <v>23</v>
@@ -1162,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1212,10 +1212,10 @@
         <v>18</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>95.0</v>
+        <v>43.0</v>
       </c>
       <c r="N16" t="s">
         <v>23</v>
@@ -1256,10 +1256,10 @@
         <v>18</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>42.0</v>
+        <v>95.0</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1294,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1321,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <v>89.0</v>
+        <v>77.0</v>
       </c>
       <c r="N18" t="s">
         <v>23</v>
@@ -1338,16 +1338,16 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>77.0</v>
+        <v>42.0</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="M20">
-        <v>43.0</v>
+        <v>92.0</v>
       </c>
       <c r="N20" t="s">
         <v>23</v>
@@ -1426,16 +1426,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>92.0</v>
+        <v>50.0</v>
       </c>
       <c r="N21" t="s">
         <v>23</v>
@@ -1470,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1497,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>90.0</v>
+        <v>90.5</v>
       </c>
       <c r="N22" t="s">
         <v>23</v>
@@ -1514,16 +1514,16 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>19</v>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>70.0</v>
+        <v>31.0</v>
       </c>
       <c r="N23" t="s">
         <v>23</v>
@@ -1558,16 +1558,16 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -1585,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>31.0</v>
+        <v>91.5</v>
       </c>
       <c r="N24" t="s">
         <v>23</v>
@@ -1608,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1629,7 +1629,7 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="N25" t="s">
         <v>23</v>
@@ -1646,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1690,16 +1690,16 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -1717,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>90.5</v>
+        <v>40.0</v>
       </c>
       <c r="N27" t="s">
         <v>23</v>
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="N28" t="s">
         <v>23</v>
@@ -1778,16 +1778,16 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>71.0</v>
+        <v>42.0</v>
       </c>
       <c r="N29" t="s">
         <v>23</v>
@@ -1828,10 +1828,10 @@
         <v>18</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
@@ -1849,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>91.5</v>
+        <v>71.0</v>
       </c>
       <c r="N31" t="s">
         <v>23</v>
@@ -1910,7 +1910,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1925,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -1954,22 +1954,22 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -1981,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>27.0</v>
+        <v>50.0</v>
       </c>
       <c r="N33" t="s">
         <v>23</v>
@@ -1998,22 +1998,22 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
@@ -2025,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>47.0</v>
+        <v>27.0</v>
       </c>
       <c r="N34" t="s">
         <v>23</v>
@@ -2042,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -2057,7 +2057,7 @@
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -2113,10 +2113,10 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>25.0</v>
+        <v>65.5</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" t="s">
         <v>21</v>
@@ -2160,7 +2160,7 @@
         <v>12.5</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2174,7 +2174,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -2189,7 +2189,7 @@
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -2218,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -2233,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
@@ -2245,10 +2245,10 @@
         <v>4</v>
       </c>
       <c r="M39">
-        <v>65.5</v>
+        <v>25.0</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -2277,7 +2277,7 @@
         <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" t="s">
         <v>21</v>
@@ -2289,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="M40">
-        <v>50.0</v>
+        <v>47.0</v>
       </c>
       <c r="N40" t="s">
         <v>23</v>
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -2321,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
@@ -2350,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2377,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="M42">
-        <v>72.0</v>
+        <v>66.0</v>
       </c>
       <c r="N42" t="s">
         <v>23</v>
@@ -2394,16 +2394,16 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="M43">
-        <v>52.0</v>
+        <v>31.5</v>
       </c>
       <c r="N43" t="s">
         <v>23</v>
@@ -2444,10 +2444,10 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
         <v>19</v>
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <v>28.0</v>
+        <v>72.0</v>
       </c>
       <c r="N44" t="s">
         <v>23</v>
@@ -2482,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -2509,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="M45">
-        <v>31.5</v>
+        <v>28.0</v>
       </c>
       <c r="N45" t="s">
         <v>23</v>
@@ -2526,16 +2526,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
@@ -2553,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>59.5</v>
+        <v>18.5</v>
       </c>
       <c r="N46" t="s">
         <v>23</v>
@@ -2570,16 +2570,16 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
         <v>19</v>
@@ -2597,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="M47">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="N47" t="s">
         <v>23</v>
@@ -2614,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -2641,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="M48">
-        <v>39.5</v>
+        <v>29.0</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2658,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="M49">
-        <v>18.5</v>
+        <v>37.0</v>
       </c>
       <c r="N49" t="s">
         <v>23</v>
@@ -2702,7 +2702,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -2729,10 +2729,10 @@
         <v>5</v>
       </c>
       <c r="M50">
-        <v>29.0</v>
+        <v>59.5</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2746,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -2773,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="M51">
-        <v>66.0</v>
+        <v>39.5</v>
       </c>
       <c r="N51" t="s">
         <v>23</v>
@@ -2796,10 +2796,10 @@
         <v>18</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="M52">
-        <v>28.5</v>
+        <v>49.5</v>
       </c>
       <c r="N52" t="s">
         <v>23</v>
@@ -2834,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -2849,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
         <v>21</v>
@@ -2861,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="M53">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="N53" t="s">
         <v>23</v>
@@ -2884,10 +2884,10 @@
         <v>18</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="M54">
-        <v>49.5</v>
+        <v>28.5</v>
       </c>
       <c r="N54" t="s">
         <v>23</v>
@@ -2922,22 +2922,22 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -2949,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="M55">
-        <v>62.0</v>
+        <v>23.0</v>
       </c>
       <c r="N55" t="s">
         <v>23</v>
@@ -2966,16 +2966,16 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>19</v>
@@ -2993,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="M56">
-        <v>74.5</v>
+        <v>26.0</v>
       </c>
       <c r="N56" t="s">
         <v>23</v>
@@ -3010,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -3025,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s">
         <v>21</v>
@@ -3037,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="M57">
-        <v>64.0</v>
+        <v>37.0</v>
       </c>
       <c r="N57" t="s">
         <v>23</v>
@@ -3054,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
@@ -3069,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
@@ -3081,7 +3081,7 @@
         <v>6</v>
       </c>
       <c r="M58">
-        <v>78.0</v>
+        <v>52.0</v>
       </c>
       <c r="N58" t="s">
         <v>23</v>
@@ -3113,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s">
         <v>21</v>
@@ -3142,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s">
         <v>21</v>
@@ -3169,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="M60">
-        <v>70.0</v>
+        <v>78.0</v>
       </c>
       <c r="N60" t="s">
         <v>23</v>
@@ -3186,16 +3186,16 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
@@ -3213,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="M61">
-        <v>37.0</v>
+        <v>92.0</v>
       </c>
       <c r="N61" t="s">
         <v>23</v>
@@ -3230,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -3257,7 +3257,7 @@
         <v>6</v>
       </c>
       <c r="M62">
-        <v>70.5</v>
+        <v>74.5</v>
       </c>
       <c r="N62" t="s">
         <v>23</v>
@@ -3274,22 +3274,22 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
         <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
@@ -3301,7 +3301,7 @@
         <v>6</v>
       </c>
       <c r="M63">
-        <v>52.0</v>
+        <v>25.0</v>
       </c>
       <c r="N63" t="s">
         <v>23</v>
@@ -3318,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -3345,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="M64">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="N64" t="s">
         <v>23</v>
@@ -3368,16 +3368,16 @@
         <v>18</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
         <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" t="s">
         <v>21</v>
@@ -3389,7 +3389,7 @@
         <v>6</v>
       </c>
       <c r="M65">
-        <v>44.0</v>
+        <v>70.5</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
@@ -3406,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="M66">
-        <v>92.0</v>
+        <v>62.0</v>
       </c>
       <c r="N66" t="s">
         <v>23</v>
@@ -3450,22 +3450,22 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
         <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
@@ -3477,7 +3477,7 @@
         <v>6</v>
       </c>
       <c r="M67">
-        <v>39.0</v>
+        <v>70.0</v>
       </c>
       <c r="N67" t="s">
         <v>23</v>
@@ -3500,10 +3500,10 @@
         <v>18</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
@@ -3521,7 +3521,7 @@
         <v>6</v>
       </c>
       <c r="M68">
-        <v>26.0</v>
+        <v>90.0</v>
       </c>
       <c r="N68" t="s">
         <v>23</v>
@@ -3565,7 +3565,7 @@
         <v>6</v>
       </c>
       <c r="M69">
-        <v>90.0</v>
+        <v>53.0</v>
       </c>
       <c r="N69" t="s">
         <v>23</v>
@@ -3588,16 +3588,16 @@
         <v>18</v>
       </c>
       <c r="F70">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
         <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -3609,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="M70">
-        <v>53.0</v>
+        <v>44.0</v>
       </c>
       <c r="N70" t="s">
         <v>23</v>
@@ -3626,7 +3626,7 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -3653,7 +3653,7 @@
         <v>6</v>
       </c>
       <c r="M71">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="N71" t="s">
         <v>23</v>
@@ -3670,7 +3670,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
@@ -3714,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="M73">
-        <v>93.0</v>
+        <v>92.5</v>
       </c>
       <c r="N73" t="s">
         <v>23</v>
@@ -3758,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -3785,7 +3785,7 @@
         <v>7</v>
       </c>
       <c r="M74">
-        <v>92.5</v>
+        <v>90.5</v>
       </c>
       <c r="N74" t="s">
         <v>23</v>
@@ -3802,16 +3802,16 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
       </c>
       <c r="F75">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G75">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
@@ -3829,7 +3829,7 @@
         <v>7</v>
       </c>
       <c r="M75">
-        <v>76.0</v>
+        <v>37.0</v>
       </c>
       <c r="N75" t="s">
         <v>23</v>
@@ -3846,7 +3846,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
@@ -3873,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="M76">
-        <v>88.0</v>
+        <v>76.0</v>
       </c>
       <c r="N76" t="s">
         <v>23</v>
@@ -3890,7 +3890,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -3917,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="M77">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="N77" t="s">
         <v>23</v>
@@ -3934,7 +3934,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
@@ -3961,7 +3961,7 @@
         <v>7</v>
       </c>
       <c r="M78">
-        <v>44.5</v>
+        <v>42.0</v>
       </c>
       <c r="N78" t="s">
         <v>23</v>
@@ -3978,16 +3978,16 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G79">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
         <v>19</v>
@@ -4005,7 +4005,7 @@
         <v>7</v>
       </c>
       <c r="M79">
-        <v>44.0</v>
+        <v>88.0</v>
       </c>
       <c r="N79" t="s">
         <v>23</v>
@@ -4022,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -4049,7 +4049,7 @@
         <v>7</v>
       </c>
       <c r="M80">
-        <v>90.5</v>
+        <v>93.0</v>
       </c>
       <c r="N80" t="s">
         <v>23</v>
@@ -4066,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
@@ -4093,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="M81">
-        <v>37.0</v>
+        <v>44.5</v>
       </c>
       <c r="N81" t="s">
         <v>23</v>
@@ -4110,16 +4110,16 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
         <v>19</v>
@@ -4137,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="M82">
-        <v>61.0</v>
+        <v>39.0</v>
       </c>
       <c r="N82" t="s">
         <v>23</v>
@@ -4154,16 +4154,16 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
       <c r="F83">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
@@ -4181,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="M83">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="N83" t="s">
         <v>23</v>
@@ -4198,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
@@ -4225,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="M84">
-        <v>51.5</v>
+        <v>78.0</v>
       </c>
       <c r="N84" t="s">
         <v>23</v>
@@ -4242,16 +4242,16 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G85">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
         <v>19</v>
@@ -4269,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="M85">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="N85" t="s">
         <v>23</v>
@@ -4286,7 +4286,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
@@ -4313,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="M86">
-        <v>23.5</v>
+        <v>39.0</v>
       </c>
       <c r="N86" t="s">
         <v>23</v>
@@ -4330,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
@@ -4357,7 +4357,7 @@
         <v>8</v>
       </c>
       <c r="M87">
-        <v>53.0</v>
+        <v>39.5</v>
       </c>
       <c r="N87" t="s">
         <v>23</v>
@@ -4374,16 +4374,16 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
@@ -4401,7 +4401,7 @@
         <v>8</v>
       </c>
       <c r="M88">
-        <v>39.5</v>
+        <v>23.5</v>
       </c>
       <c r="N88" t="s">
         <v>23</v>
@@ -4418,7 +4418,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
@@ -4445,7 +4445,7 @@
         <v>8</v>
       </c>
       <c r="M89">
-        <v>78.0</v>
+        <v>51.5</v>
       </c>
       <c r="N89" t="s">
         <v>23</v>
@@ -4462,16 +4462,16 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G90">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
         <v>19</v>
@@ -4489,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="M90">
-        <v>39.0</v>
+        <v>53.0</v>
       </c>
       <c r="N90" t="s">
         <v>23</v>
@@ -4506,16 +4506,16 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s">
         <v>19</v>
@@ -4533,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="M91">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
       <c r="N91" t="s">
         <v>23</v>
@@ -4550,7 +4550,7 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
@@ -4577,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="M92">
-        <v>74.5</v>
+        <v>73.5</v>
       </c>
       <c r="N92" t="s">
         <v>23</v>
@@ -4594,7 +4594,7 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
@@ -4621,7 +4621,7 @@
         <v>9</v>
       </c>
       <c r="M93">
-        <v>78.5</v>
+        <v>60.5</v>
       </c>
       <c r="N93" t="s">
         <v>23</v>
@@ -4638,16 +4638,16 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
         <v>19</v>
@@ -4665,7 +4665,7 @@
         <v>9</v>
       </c>
       <c r="M94">
-        <v>60.5</v>
+        <v>39.0</v>
       </c>
       <c r="N94" t="s">
         <v>23</v>
@@ -4682,16 +4682,16 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
       <c r="F95">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
         <v>19</v>
@@ -4709,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="M95">
-        <v>33.0</v>
+        <v>78.5</v>
       </c>
       <c r="N95" t="s">
         <v>23</v>
@@ -4726,16 +4726,16 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
         <v>19</v>
@@ -4753,7 +4753,7 @@
         <v>9</v>
       </c>
       <c r="M96">
-        <v>73.5</v>
+        <v>33.0</v>
       </c>
       <c r="N96" t="s">
         <v>23</v>
@@ -4776,10 +4776,10 @@
         <v>18</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G97">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
         <v>19</v>
@@ -4797,7 +4797,7 @@
         <v>9</v>
       </c>
       <c r="M97">
-        <v>39.0</v>
+        <v>77.0</v>
       </c>
       <c r="N97" t="s">
         <v>23</v>
@@ -4814,7 +4814,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
@@ -4858,7 +4858,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
@@ -4885,7 +4885,7 @@
         <v>9</v>
       </c>
       <c r="M99">
-        <v>77.0</v>
+        <v>53.0</v>
       </c>
       <c r="N99" t="s">
         <v>23</v>
@@ -4902,16 +4902,16 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
       </c>
       <c r="F100">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G100">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
@@ -4929,7 +4929,7 @@
         <v>9</v>
       </c>
       <c r="M100">
-        <v>53.0</v>
+        <v>35.5</v>
       </c>
       <c r="N100" t="s">
         <v>23</v>
@@ -4946,16 +4946,16 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G101">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
         <v>19</v>
@@ -4973,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="M101">
-        <v>35.5</v>
+        <v>74.5</v>
       </c>
       <c r="N101" t="s">
         <v>23</v>
@@ -4990,16 +4990,16 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
       </c>
       <c r="F102">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
         <v>19</v>
@@ -5017,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="M102">
-        <v>52.5</v>
+        <v>42.5</v>
       </c>
       <c r="N102" t="s">
         <v>23</v>
@@ -5034,7 +5034,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
@@ -5061,7 +5061,7 @@
         <v>10</v>
       </c>
       <c r="M103">
-        <v>65.0</v>
+        <v>65.5</v>
       </c>
       <c r="N103" t="s">
         <v>23</v>
@@ -5078,16 +5078,16 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G104">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
         <v>19</v>
@@ -5105,7 +5105,7 @@
         <v>10</v>
       </c>
       <c r="M104">
-        <v>48.0</v>
+        <v>70.0</v>
       </c>
       <c r="N104" t="s">
         <v>23</v>
@@ -5122,16 +5122,16 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G105">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
         <v>19</v>
@@ -5149,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="M105">
-        <v>49.0</v>
+        <v>52.5</v>
       </c>
       <c r="N105" t="s">
         <v>23</v>
@@ -5166,7 +5166,7 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
@@ -5193,7 +5193,7 @@
         <v>10</v>
       </c>
       <c r="M106">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
       <c r="N106" t="s">
         <v>23</v>
@@ -5210,16 +5210,16 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G107">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
         <v>19</v>
@@ -5237,7 +5237,7 @@
         <v>10</v>
       </c>
       <c r="M107">
-        <v>42.5</v>
+        <v>81.0</v>
       </c>
       <c r="N107" t="s">
         <v>23</v>
@@ -5254,16 +5254,16 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G108">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
         <v>19</v>
@@ -5281,7 +5281,7 @@
         <v>10</v>
       </c>
       <c r="M108">
-        <v>45.5</v>
+        <v>65.0</v>
       </c>
       <c r="N108" t="s">
         <v>23</v>
@@ -5298,16 +5298,16 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
         <v>18</v>
       </c>
       <c r="F109">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G109">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H109" t="s">
         <v>19</v>
@@ -5325,7 +5325,7 @@
         <v>10</v>
       </c>
       <c r="M109">
-        <v>70.0</v>
+        <v>48.0</v>
       </c>
       <c r="N109" t="s">
         <v>23</v>
@@ -5342,16 +5342,16 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
       </c>
       <c r="F110">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
         <v>19</v>
@@ -5369,7 +5369,7 @@
         <v>10</v>
       </c>
       <c r="M110">
-        <v>77.0</v>
+        <v>49.0</v>
       </c>
       <c r="N110" t="s">
         <v>23</v>
@@ -5386,16 +5386,16 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
       </c>
       <c r="F111">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
         <v>19</v>
@@ -5413,7 +5413,7 @@
         <v>10</v>
       </c>
       <c r="M111">
-        <v>65.5</v>
+        <v>45.5</v>
       </c>
       <c r="N111" t="s">
         <v>23</v>
@@ -5430,16 +5430,16 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G112">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H112" t="s">
         <v>19</v>
@@ -5457,10 +5457,10 @@
         <v>11</v>
       </c>
       <c r="M112">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5474,16 +5474,16 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G113">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H113" t="s">
         <v>19</v>
@@ -5501,10 +5501,10 @@
         <v>11</v>
       </c>
       <c r="M113">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5518,16 +5518,16 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
       </c>
       <c r="F114">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G114">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
@@ -5545,10 +5545,10 @@
         <v>11</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>4.0</v>
       </c>
       <c r="N114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5562,16 +5562,16 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
       </c>
       <c r="F115">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H115" t="s">
         <v>19</v>
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="M115">
-        <v>22.0</v>
+        <v>38.0</v>
       </c>
       <c r="N115" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5606,16 +5606,16 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G116">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s">
         <v>19</v>
@@ -5633,10 +5633,10 @@
         <v>11</v>
       </c>
       <c r="M116">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="N116" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5650,16 +5650,16 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
       </c>
       <c r="F117">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G117">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
         <v>19</v>
@@ -5677,10 +5677,10 @@
         <v>11</v>
       </c>
       <c r="M117">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5694,7 +5694,7 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
         <v>18</v>
@@ -5721,10 +5721,10 @@
         <v>11</v>
       </c>
       <c r="M118">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="N118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5738,16 +5738,16 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
       </c>
       <c r="F119">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G119">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
@@ -5765,10 +5765,10 @@
         <v>11</v>
       </c>
       <c r="M119">
-        <v>27.0</v>
+        <v>5.5</v>
       </c>
       <c r="N119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5782,7 +5782,7 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
@@ -5809,10 +5809,10 @@
         <v>11</v>
       </c>
       <c r="M120">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="N120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5826,16 +5826,16 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121" t="s">
         <v>18</v>
       </c>
       <c r="F121">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G121">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
         <v>19</v>
@@ -5853,10 +5853,10 @@
         <v>11</v>
       </c>
       <c r="M121">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="N121" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -5870,16 +5870,16 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E122" t="s">
         <v>18</v>
       </c>
       <c r="F122">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G122">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s">
         <v>19</v>
@@ -5897,10 +5897,10 @@
         <v>12</v>
       </c>
       <c r="M122">
-        <v>14.0</v>
+        <v>72.0</v>
       </c>
       <c r="N122" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5914,7 +5914,7 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -5958,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
@@ -5985,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="M124">
-        <v>72.0</v>
+        <v>67.0</v>
       </c>
       <c r="N124" t="s">
         <v>23</v>
@@ -6002,7 +6002,7 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>18</v>
@@ -6029,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="M125">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="N125" t="s">
         <v>23</v>
@@ -6046,7 +6046,7 @@
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E126" t="s">
         <v>18</v>
@@ -6073,10 +6073,10 @@
         <v>12</v>
       </c>
       <c r="M126">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="N126" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6090,16 +6090,16 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E127" t="s">
         <v>18</v>
       </c>
       <c r="F127">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G127">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
         <v>19</v>
@@ -6117,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="M127">
-        <v>47.0</v>
+        <v>25.0</v>
       </c>
       <c r="N127" t="s">
         <v>23</v>
@@ -6134,7 +6134,7 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -6178,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -6222,16 +6222,16 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
       </c>
       <c r="F130">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G130">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H130" t="s">
         <v>19</v>
@@ -6249,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="M130">
-        <v>67.0</v>
+        <v>20.0</v>
       </c>
       <c r="N130" t="s">
         <v>23</v>
@@ -6266,16 +6266,16 @@
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s">
         <v>18</v>
       </c>
       <c r="F131">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G131">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H131" t="s">
         <v>19</v>
@@ -6293,7 +6293,7 @@
         <v>12</v>
       </c>
       <c r="M131">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="N131" t="s">
         <v>23</v>
@@ -6310,7 +6310,7 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -6337,10 +6337,10 @@
         <v>13</v>
       </c>
       <c r="M132">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="N132" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6354,7 +6354,7 @@
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -6369,7 +6369,7 @@
         <v>19</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J133" t="s">
         <v>21</v>
@@ -6381,7 +6381,7 @@
         <v>13</v>
       </c>
       <c r="M133">
-        <v>86.5</v>
+        <v>40.5</v>
       </c>
       <c r="N133" t="s">
         <v>23</v>
@@ -6398,7 +6398,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -6413,7 +6413,7 @@
         <v>19</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134" t="s">
         <v>21</v>
@@ -6428,7 +6428,7 @@
         <v>0.0</v>
       </c>
       <c r="N134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6442,7 +6442,7 @@
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
@@ -6457,7 +6457,7 @@
         <v>19</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J135" t="s">
         <v>21</v>
@@ -6472,7 +6472,7 @@
         <v>0.0</v>
       </c>
       <c r="N135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6486,7 +6486,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -6501,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J136" t="s">
         <v>21</v>
@@ -6530,16 +6530,16 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
       </c>
       <c r="F137">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G137">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
@@ -6557,10 +6557,10 @@
         <v>13</v>
       </c>
       <c r="M137">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="N137" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6574,7 +6574,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
         <v>18</v>
@@ -6589,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J138" t="s">
         <v>21</v>
@@ -6604,7 +6604,7 @@
         <v>0.0</v>
       </c>
       <c r="N138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6618,7 +6618,7 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
         <v>18</v>
@@ -6645,10 +6645,10 @@
         <v>13</v>
       </c>
       <c r="M139">
-        <v>40.5</v>
+        <v>0.0</v>
       </c>
       <c r="N139" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6662,22 +6662,22 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E140" t="s">
         <v>18</v>
       </c>
       <c r="F140">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G140">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H140" t="s">
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J140" t="s">
         <v>21</v>
@@ -6689,7 +6689,7 @@
         <v>13</v>
       </c>
       <c r="M140">
-        <v>35.0</v>
+        <v>66.0</v>
       </c>
       <c r="N140" t="s">
         <v>23</v>
@@ -6706,7 +6706,7 @@
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
         <v>18</v>
@@ -6733,10 +6733,10 @@
         <v>13</v>
       </c>
       <c r="M141">
-        <v>0.0</v>
+        <v>29.5</v>
       </c>
       <c r="N141" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6750,7 +6750,7 @@
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
         <v>18</v>
@@ -6777,10 +6777,10 @@
         <v>13</v>
       </c>
       <c r="M142">
-        <v>73.0</v>
+        <v>0.0</v>
       </c>
       <c r="N142" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -6794,16 +6794,16 @@
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E143" t="s">
         <v>18</v>
       </c>
       <c r="F143">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G143">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
@@ -6821,7 +6821,7 @@
         <v>13</v>
       </c>
       <c r="M143">
-        <v>66.0</v>
+        <v>25.0</v>
       </c>
       <c r="N143" t="s">
         <v>23</v>
@@ -6838,7 +6838,7 @@
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
@@ -6853,7 +6853,7 @@
         <v>19</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J144" t="s">
         <v>21</v>
@@ -6868,7 +6868,7 @@
         <v>0.0</v>
       </c>
       <c r="N144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6882,7 +6882,7 @@
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E145" t="s">
         <v>18</v>
@@ -6909,10 +6909,10 @@
         <v>13</v>
       </c>
       <c r="M145">
-        <v>29.5</v>
+        <v>0.0</v>
       </c>
       <c r="N145" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6926,7 +6926,7 @@
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
         <v>18</v>
@@ -6941,7 +6941,7 @@
         <v>19</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J146" t="s">
         <v>21</v>
@@ -6953,7 +6953,7 @@
         <v>13</v>
       </c>
       <c r="M146">
-        <v>39.0</v>
+        <v>73.0</v>
       </c>
       <c r="N146" t="s">
         <v>23</v>
@@ -6970,7 +6970,7 @@
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
@@ -6985,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J147" t="s">
         <v>21</v>
@@ -7000,7 +7000,7 @@
         <v>0.0</v>
       </c>
       <c r="N147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7014,7 +7014,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
@@ -7041,10 +7041,10 @@
         <v>13</v>
       </c>
       <c r="M148">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="N148" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7058,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -7085,10 +7085,10 @@
         <v>13</v>
       </c>
       <c r="M149">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="N149" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7102,7 +7102,7 @@
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E150" t="s">
         <v>18</v>
@@ -7129,10 +7129,10 @@
         <v>13</v>
       </c>
       <c r="M150">
-        <v>0.0</v>
+        <v>86.5</v>
       </c>
       <c r="N150" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7146,22 +7146,22 @@
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
       </c>
       <c r="F151">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G151">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H151" t="s">
         <v>19</v>
       </c>
       <c r="I151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J151" t="s">
         <v>21</v>
@@ -7173,7 +7173,7 @@
         <v>13</v>
       </c>
       <c r="M151">
-        <v>30.0</v>
+        <v>62.0</v>
       </c>
       <c r="N151" t="s">
         <v>23</v>
@@ -7190,16 +7190,16 @@
         <v>16</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
       </c>
       <c r="F152">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G152">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H152" t="s">
         <v>19</v>
@@ -7217,7 +7217,7 @@
         <v>14</v>
       </c>
       <c r="M152">
-        <v>21.0</v>
+        <v>43.0</v>
       </c>
       <c r="N152" t="s">
         <v>23</v>
@@ -7234,16 +7234,16 @@
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
       <c r="F153">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G153">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H153" t="s">
         <v>19</v>
@@ -7261,7 +7261,7 @@
         <v>14</v>
       </c>
       <c r="M153">
-        <v>24.5</v>
+        <v>63.5</v>
       </c>
       <c r="N153" t="s">
         <v>23</v>
@@ -7278,7 +7278,7 @@
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
@@ -7305,7 +7305,7 @@
         <v>14</v>
       </c>
       <c r="M154">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="N154" t="s">
         <v>23</v>
@@ -7322,7 +7322,7 @@
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
@@ -7349,7 +7349,7 @@
         <v>14</v>
       </c>
       <c r="M155">
-        <v>63.5</v>
+        <v>66.0</v>
       </c>
       <c r="N155" t="s">
         <v>23</v>
@@ -7366,7 +7366,7 @@
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
@@ -7410,7 +7410,7 @@
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
@@ -7437,7 +7437,7 @@
         <v>14</v>
       </c>
       <c r="M157">
-        <v>66.0</v>
+        <v>49.0</v>
       </c>
       <c r="N157" t="s">
         <v>23</v>
@@ -7454,16 +7454,16 @@
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
       </c>
       <c r="F158">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G158">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -7481,7 +7481,7 @@
         <v>14</v>
       </c>
       <c r="M158">
-        <v>46.0</v>
+        <v>24.5</v>
       </c>
       <c r="N158" t="s">
         <v>23</v>
@@ -7498,7 +7498,7 @@
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
@@ -7525,7 +7525,7 @@
         <v>14</v>
       </c>
       <c r="M159">
-        <v>49.0</v>
+        <v>48.5</v>
       </c>
       <c r="N159" t="s">
         <v>23</v>
@@ -7542,16 +7542,16 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
       </c>
       <c r="F160">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G160">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
         <v>19</v>
@@ -7569,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="M160">
-        <v>48.5</v>
+        <v>34.0</v>
       </c>
       <c r="N160" t="s">
         <v>23</v>
@@ -7586,7 +7586,7 @@
         <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
         <v>18</v>
@@ -7613,7 +7613,7 @@
         <v>14</v>
       </c>
       <c r="M161">
-        <v>34.0</v>
+        <v>21.0</v>
       </c>
       <c r="N161" t="s">
         <v>23</v>
@@ -7630,7 +7630,7 @@
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
@@ -7657,10 +7657,10 @@
         <v>15</v>
       </c>
       <c r="M162">
-        <v>35.0</v>
+        <v>6.0</v>
       </c>
       <c r="N162" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -7674,7 +7674,7 @@
         <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E163" t="s">
         <v>18</v>
@@ -7718,7 +7718,7 @@
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E164" t="s">
         <v>18</v>
@@ -7745,7 +7745,7 @@
         <v>15</v>
       </c>
       <c r="M164">
-        <v>33.0</v>
+        <v>33.5</v>
       </c>
       <c r="N164" t="s">
         <v>23</v>
@@ -7762,16 +7762,16 @@
         <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
       </c>
       <c r="F165">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G165">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H165" t="s">
         <v>19</v>
@@ -7789,10 +7789,10 @@
         <v>15</v>
       </c>
       <c r="M165">
-        <v>25.5</v>
+        <v>37.0</v>
       </c>
       <c r="N165" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -7806,7 +7806,7 @@
         <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
@@ -7833,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="M166">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="N166" t="s">
         <v>23</v>
@@ -7850,16 +7850,16 @@
         <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E167" t="s">
         <v>18</v>
       </c>
       <c r="F167">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G167">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
         <v>19</v>
@@ -7877,10 +7877,10 @@
         <v>15</v>
       </c>
       <c r="M167">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
       <c r="N167" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -7894,16 +7894,16 @@
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E168" t="s">
         <v>18</v>
       </c>
       <c r="F168">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G168">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H168" t="s">
         <v>19</v>
@@ -7921,10 +7921,10 @@
         <v>15</v>
       </c>
       <c r="M168">
-        <v>33.5</v>
+        <v>25.5</v>
       </c>
       <c r="N168" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -7968,7 +7968,7 @@
         <v>10.5</v>
       </c>
       <c r="N169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -7982,16 +7982,16 @@
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
       </c>
       <c r="F170">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G170">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H170" t="s">
         <v>19</v>
@@ -8009,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="M170">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="N170" t="s">
         <v>23</v>
@@ -8026,7 +8026,7 @@
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -8070,7 +8070,7 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
@@ -8114,16 +8114,16 @@
         <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E173" t="s">
         <v>18</v>
       </c>
       <c r="F173">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G173">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
@@ -8141,7 +8141,7 @@
         <v>16</v>
       </c>
       <c r="M173">
-        <v>39.0</v>
+        <v>65.0</v>
       </c>
       <c r="N173" t="s">
         <v>23</v>
@@ -8158,7 +8158,7 @@
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E174" t="s">
         <v>18</v>
@@ -8185,7 +8185,7 @@
         <v>16</v>
       </c>
       <c r="M174">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
       <c r="N174" t="s">
         <v>23</v>
@@ -8202,16 +8202,16 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
       </c>
       <c r="F175">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G175">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H175" t="s">
         <v>19</v>
@@ -8229,7 +8229,7 @@
         <v>16</v>
       </c>
       <c r="M175">
-        <v>49.0</v>
+        <v>90.0</v>
       </c>
       <c r="N175" t="s">
         <v>23</v>
@@ -8296,10 +8296,10 @@
         <v>18</v>
       </c>
       <c r="F177">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G177">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H177" t="s">
         <v>19</v>
@@ -8317,7 +8317,7 @@
         <v>16</v>
       </c>
       <c r="M177">
-        <v>65.0</v>
+        <v>49.0</v>
       </c>
       <c r="N177" t="s">
         <v>23</v>
@@ -8334,7 +8334,7 @@
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
@@ -8361,7 +8361,7 @@
         <v>16</v>
       </c>
       <c r="M178">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="N178" t="s">
         <v>23</v>
@@ -8378,16 +8378,16 @@
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E179" t="s">
         <v>18</v>
       </c>
       <c r="F179">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G179">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H179" t="s">
         <v>19</v>
@@ -8405,7 +8405,7 @@
         <v>16</v>
       </c>
       <c r="M179">
-        <v>33.0</v>
+        <v>90.0</v>
       </c>
       <c r="N179" t="s">
         <v>23</v>
@@ -8422,16 +8422,16 @@
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E180" t="s">
         <v>18</v>
       </c>
       <c r="F180">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G180">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H180" t="s">
         <v>19</v>
@@ -8449,7 +8449,7 @@
         <v>16</v>
       </c>
       <c r="M180">
-        <v>90.0</v>
+        <v>49.0</v>
       </c>
       <c r="N180" t="s">
         <v>23</v>
@@ -8466,16 +8466,16 @@
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
       </c>
       <c r="F181">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G181">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H181" t="s">
         <v>19</v>
@@ -8493,7 +8493,7 @@
         <v>16</v>
       </c>
       <c r="M181">
-        <v>88.0</v>
+        <v>33.0</v>
       </c>
       <c r="N181" t="s">
         <v>23</v>
@@ -8510,16 +8510,16 @@
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E182" t="s">
         <v>18</v>
       </c>
       <c r="F182">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G182">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H182" t="s">
         <v>19</v>
@@ -8537,7 +8537,7 @@
         <v>17</v>
       </c>
       <c r="M182">
-        <v>50.5</v>
+        <v>26.0</v>
       </c>
       <c r="N182" t="s">
         <v>23</v>
@@ -8554,7 +8554,7 @@
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
@@ -8598,7 +8598,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E184" t="s">
         <v>18</v>
@@ -8642,7 +8642,7 @@
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E185" t="s">
         <v>18</v>
@@ -8686,7 +8686,7 @@
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -8730,7 +8730,7 @@
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
@@ -8757,7 +8757,7 @@
         <v>17</v>
       </c>
       <c r="M187">
-        <v>58.5</v>
+        <v>50.5</v>
       </c>
       <c r="N187" t="s">
         <v>23</v>
@@ -8774,7 +8774,7 @@
         <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
@@ -8801,7 +8801,7 @@
         <v>17</v>
       </c>
       <c r="M188">
-        <v>60.0</v>
+        <v>58.5</v>
       </c>
       <c r="N188" t="s">
         <v>23</v>
@@ -8818,16 +8818,16 @@
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E189" t="s">
         <v>18</v>
       </c>
       <c r="F189">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G189">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H189" t="s">
         <v>19</v>
@@ -8845,7 +8845,7 @@
         <v>17</v>
       </c>
       <c r="M189">
-        <v>35.0</v>
+        <v>60.0</v>
       </c>
       <c r="N189" t="s">
         <v>23</v>
@@ -8862,7 +8862,7 @@
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s">
         <v>18</v>
@@ -8889,7 +8889,7 @@
         <v>17</v>
       </c>
       <c r="M190">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="N190" t="s">
         <v>23</v>
@@ -8906,7 +8906,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -8933,7 +8933,7 @@
         <v>17</v>
       </c>
       <c r="M191">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="N191" t="s">
         <v>23</v>
@@ -8950,16 +8950,16 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
       </c>
       <c r="F192">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G192">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
         <v>19</v>
@@ -8977,7 +8977,7 @@
         <v>18</v>
       </c>
       <c r="M192">
-        <v>67.5</v>
+        <v>46.0</v>
       </c>
       <c r="N192" t="s">
         <v>23</v>
@@ -8994,7 +8994,7 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
@@ -9021,7 +9021,7 @@
         <v>18</v>
       </c>
       <c r="M193">
-        <v>74.0</v>
+        <v>70.0</v>
       </c>
       <c r="N193" t="s">
         <v>23</v>
@@ -9038,7 +9038,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -9065,7 +9065,7 @@
         <v>18</v>
       </c>
       <c r="M194">
-        <v>51.0</v>
+        <v>93.0</v>
       </c>
       <c r="N194" t="s">
         <v>23</v>
@@ -9082,7 +9082,7 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
@@ -9109,7 +9109,7 @@
         <v>18</v>
       </c>
       <c r="M195">
-        <v>81.0</v>
+        <v>74.0</v>
       </c>
       <c r="N195" t="s">
         <v>23</v>
@@ -9126,7 +9126,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
@@ -9153,7 +9153,7 @@
         <v>18</v>
       </c>
       <c r="M196">
-        <v>70.0</v>
+        <v>51.0</v>
       </c>
       <c r="N196" t="s">
         <v>23</v>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -9197,7 +9197,7 @@
         <v>18</v>
       </c>
       <c r="M197">
-        <v>37.0</v>
+        <v>45.5</v>
       </c>
       <c r="N197" t="s">
         <v>23</v>
@@ -9214,16 +9214,16 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
       </c>
       <c r="F198">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G198">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
         <v>19</v>
@@ -9241,7 +9241,7 @@
         <v>18</v>
       </c>
       <c r="M198">
-        <v>93.0</v>
+        <v>41.0</v>
       </c>
       <c r="N198" t="s">
         <v>23</v>
@@ -9258,16 +9258,16 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E199" t="s">
         <v>18</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G199">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H199" t="s">
         <v>19</v>
@@ -9285,7 +9285,7 @@
         <v>18</v>
       </c>
       <c r="M199">
-        <v>41.0</v>
+        <v>81.0</v>
       </c>
       <c r="N199" t="s">
         <v>23</v>
@@ -9302,7 +9302,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E200" t="s">
         <v>18</v>
@@ -9329,7 +9329,7 @@
         <v>18</v>
       </c>
       <c r="M200">
-        <v>45.5</v>
+        <v>37.0</v>
       </c>
       <c r="N200" t="s">
         <v>23</v>
@@ -9346,16 +9346,16 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
         <v>18</v>
       </c>
       <c r="F201">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G201">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H201" t="s">
         <v>19</v>
@@ -9373,7 +9373,7 @@
         <v>18</v>
       </c>
       <c r="M201">
-        <v>46.0</v>
+        <v>67.5</v>
       </c>
       <c r="N201" t="s">
         <v>23</v>
@@ -9390,16 +9390,16 @@
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E202" t="s">
         <v>18</v>
       </c>
       <c r="F202">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G202">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H202" t="s">
         <v>19</v>
@@ -9417,10 +9417,10 @@
         <v>19</v>
       </c>
       <c r="M202">
-        <v>28.0</v>
+        <v>14.5</v>
       </c>
       <c r="N202" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9434,7 +9434,7 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
         <v>18</v>
@@ -9461,10 +9461,10 @@
         <v>19</v>
       </c>
       <c r="M203">
-        <v>2.5</v>
+        <v>28.0</v>
       </c>
       <c r="N203" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9484,10 +9484,10 @@
         <v>18</v>
       </c>
       <c r="F204">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G204">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
@@ -9505,7 +9505,7 @@
         <v>19</v>
       </c>
       <c r="M204">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="N204" t="s">
         <v>23</v>
@@ -9522,7 +9522,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E205" t="s">
         <v>18</v>
@@ -9566,7 +9566,7 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E206" t="s">
         <v>18</v>
@@ -9593,10 +9593,10 @@
         <v>19</v>
       </c>
       <c r="M206">
-        <v>15.0</v>
+        <v>2.5</v>
       </c>
       <c r="N206" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9640,7 +9640,7 @@
         <v>15.5</v>
       </c>
       <c r="N207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9654,7 +9654,7 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s">
         <v>18</v>
@@ -9681,10 +9681,10 @@
         <v>19</v>
       </c>
       <c r="M208">
-        <v>14.5</v>
+        <v>21.0</v>
       </c>
       <c r="N208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9698,7 +9698,7 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
@@ -9725,10 +9725,10 @@
         <v>19</v>
       </c>
       <c r="M209">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="N209" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9742,7 +9742,7 @@
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
@@ -9769,7 +9769,7 @@
         <v>19</v>
       </c>
       <c r="M210">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="N210" t="s">
         <v>23</v>
@@ -9786,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
@@ -9813,7 +9813,7 @@
         <v>19</v>
       </c>
       <c r="M211">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="N211" t="s">
         <v>23</v>
@@ -9830,16 +9830,16 @@
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E212" t="s">
         <v>18</v>
       </c>
       <c r="F212">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G212">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H212" t="s">
         <v>19</v>
@@ -9857,10 +9857,10 @@
         <v>20</v>
       </c>
       <c r="M212">
-        <v>8.0</v>
+        <v>43.5</v>
       </c>
       <c r="N212" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -9945,7 +9945,7 @@
         <v>20</v>
       </c>
       <c r="M214">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="N214" t="s">
         <v>23</v>
@@ -9962,16 +9962,16 @@
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
       </c>
       <c r="F215">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G215">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H215" t="s">
         <v>19</v>
@@ -9989,7 +9989,7 @@
         <v>20</v>
       </c>
       <c r="M215">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="N215" t="s">
         <v>23</v>
@@ -10012,10 +10012,10 @@
         <v>18</v>
       </c>
       <c r="F216">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G216">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H216" t="s">
         <v>19</v>
@@ -10033,7 +10033,7 @@
         <v>20</v>
       </c>
       <c r="M216">
-        <v>50.0</v>
+        <v>31.0</v>
       </c>
       <c r="N216" t="s">
         <v>23</v>
@@ -10050,16 +10050,16 @@
         <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E217" t="s">
         <v>18</v>
       </c>
       <c r="F217">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G217">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H217" t="s">
         <v>19</v>
@@ -10077,7 +10077,7 @@
         <v>20</v>
       </c>
       <c r="M217">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="N217" t="s">
         <v>23</v>
@@ -10094,16 +10094,16 @@
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E218" t="s">
         <v>18</v>
       </c>
       <c r="F218">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G218">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H218" t="s">
         <v>19</v>
@@ -10121,7 +10121,7 @@
         <v>20</v>
       </c>
       <c r="M218">
-        <v>43.5</v>
+        <v>16.0</v>
       </c>
       <c r="N218" t="s">
         <v>23</v>
@@ -10138,7 +10138,7 @@
         <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
         <v>18</v>
@@ -10165,10 +10165,10 @@
         <v>20</v>
       </c>
       <c r="M219">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="N219" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10182,7 +10182,7 @@
         <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E220" t="s">
         <v>18</v>
@@ -10209,7 +10209,7 @@
         <v>20</v>
       </c>
       <c r="M220">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="N220" t="s">
         <v>23</v>
@@ -10226,16 +10226,16 @@
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
         <v>18</v>
       </c>
       <c r="F221">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G221">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -10253,7 +10253,7 @@
         <v>20</v>
       </c>
       <c r="M221">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="N221" t="s">
         <v>23</v>
@@ -10270,16 +10270,16 @@
         <v>16</v>
       </c>
       <c r="D222" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
       </c>
       <c r="F222">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G222">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
@@ -10297,7 +10297,7 @@
         <v>21</v>
       </c>
       <c r="M222">
-        <v>43.0</v>
+        <v>63.0</v>
       </c>
       <c r="N222" t="s">
         <v>23</v>
@@ -10314,16 +10314,16 @@
         <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
       </c>
       <c r="F223">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G223">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -10341,7 +10341,7 @@
         <v>21</v>
       </c>
       <c r="M223">
-        <v>75.0</v>
+        <v>41.0</v>
       </c>
       <c r="N223" t="s">
         <v>23</v>
@@ -10358,7 +10358,7 @@
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
         <v>18</v>
@@ -10402,16 +10402,16 @@
         <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
       </c>
       <c r="F225">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G225">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H225" t="s">
         <v>19</v>
@@ -10429,7 +10429,7 @@
         <v>21</v>
       </c>
       <c r="M225">
-        <v>41.0</v>
+        <v>49.5</v>
       </c>
       <c r="N225" t="s">
         <v>23</v>
@@ -10446,7 +10446,7 @@
         <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
         <v>18</v>
@@ -10490,7 +10490,7 @@
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
@@ -10517,7 +10517,7 @@
         <v>21</v>
       </c>
       <c r="M227">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="N227" t="s">
         <v>23</v>
@@ -10534,16 +10534,16 @@
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E228" t="s">
         <v>18</v>
       </c>
       <c r="F228">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G228">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H228" t="s">
         <v>19</v>
@@ -10561,7 +10561,7 @@
         <v>21</v>
       </c>
       <c r="M228">
-        <v>49.5</v>
+        <v>41.0</v>
       </c>
       <c r="N228" t="s">
         <v>23</v>
@@ -10578,16 +10578,16 @@
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E229" t="s">
         <v>18</v>
       </c>
       <c r="F229">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G229">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H229" t="s">
         <v>19</v>
@@ -10605,7 +10605,7 @@
         <v>21</v>
       </c>
       <c r="M229">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="N229" t="s">
         <v>23</v>
@@ -10622,7 +10622,7 @@
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
         <v>18</v>
@@ -10666,16 +10666,16 @@
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E231" t="s">
         <v>18</v>
       </c>
       <c r="F231">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G231">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H231" t="s">
         <v>19</v>
@@ -10693,7 +10693,7 @@
         <v>21</v>
       </c>
       <c r="M231">
-        <v>36.0</v>
+        <v>75.0</v>
       </c>
       <c r="N231" t="s">
         <v>23</v>
@@ -10710,16 +10710,16 @@
         <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E232" t="s">
         <v>18</v>
       </c>
       <c r="F232">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G232">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H232" t="s">
         <v>19</v>
@@ -10737,7 +10737,7 @@
         <v>22</v>
       </c>
       <c r="M232">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="N232" t="s">
         <v>23</v>
@@ -10754,16 +10754,16 @@
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E233" t="s">
         <v>18</v>
       </c>
       <c r="F233">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G233">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H233" t="s">
         <v>19</v>
@@ -10781,7 +10781,7 @@
         <v>22</v>
       </c>
       <c r="M233">
-        <v>39.0</v>
+        <v>48.5</v>
       </c>
       <c r="N233" t="s">
         <v>23</v>
@@ -10798,16 +10798,16 @@
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E234" t="s">
         <v>18</v>
       </c>
       <c r="F234">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G234">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H234" t="s">
         <v>19</v>
@@ -10825,7 +10825,7 @@
         <v>22</v>
       </c>
       <c r="M234">
-        <v>39.0</v>
+        <v>50.5</v>
       </c>
       <c r="N234" t="s">
         <v>23</v>
@@ -10842,16 +10842,16 @@
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E235" t="s">
         <v>18</v>
       </c>
       <c r="F235">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G235">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H235" t="s">
         <v>19</v>
@@ -10869,7 +10869,7 @@
         <v>22</v>
       </c>
       <c r="M235">
-        <v>44.5</v>
+        <v>30.0</v>
       </c>
       <c r="N235" t="s">
         <v>23</v>
@@ -10886,7 +10886,7 @@
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E236" t="s">
         <v>18</v>
@@ -10913,7 +10913,7 @@
         <v>22</v>
       </c>
       <c r="M236">
-        <v>64.5</v>
+        <v>34.0</v>
       </c>
       <c r="N236" t="s">
         <v>23</v>
@@ -10930,7 +10930,7 @@
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E237" t="s">
         <v>18</v>
@@ -10957,7 +10957,7 @@
         <v>22</v>
       </c>
       <c r="M237">
-        <v>50.5</v>
+        <v>64.5</v>
       </c>
       <c r="N237" t="s">
         <v>23</v>
@@ -10974,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E238" t="s">
         <v>18</v>
@@ -11018,16 +11018,16 @@
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E239" t="s">
         <v>18</v>
       </c>
       <c r="F239">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G239">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H239" t="s">
         <v>19</v>
@@ -11045,7 +11045,7 @@
         <v>22</v>
       </c>
       <c r="M239">
-        <v>48.5</v>
+        <v>39.0</v>
       </c>
       <c r="N239" t="s">
         <v>23</v>
@@ -11062,16 +11062,16 @@
         <v>16</v>
       </c>
       <c r="D240" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E240" t="s">
         <v>18</v>
       </c>
       <c r="F240">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G240">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H240" t="s">
         <v>19</v>
@@ -11089,7 +11089,7 @@
         <v>22</v>
       </c>
       <c r="M240">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="N240" t="s">
         <v>23</v>
@@ -11106,7 +11106,7 @@
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E241" t="s">
         <v>18</v>
@@ -11133,7 +11133,7 @@
         <v>22</v>
       </c>
       <c r="M241">
-        <v>26.0</v>
+        <v>44.5</v>
       </c>
       <c r="N241" t="s">
         <v>23</v>
@@ -11150,7 +11150,7 @@
         <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E242" t="s">
         <v>18</v>
@@ -11177,7 +11177,7 @@
         <v>23</v>
       </c>
       <c r="M242">
-        <v>28.5</v>
+        <v>35.0</v>
       </c>
       <c r="N242" t="s">
         <v>23</v>
@@ -11194,16 +11194,16 @@
         <v>16</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
         <v>18</v>
       </c>
       <c r="F243">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G243">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H243" t="s">
         <v>19</v>
@@ -11221,7 +11221,7 @@
         <v>23</v>
       </c>
       <c r="M243">
-        <v>49.0</v>
+        <v>76.5</v>
       </c>
       <c r="N243" t="s">
         <v>23</v>
@@ -11238,16 +11238,16 @@
         <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E244" t="s">
         <v>18</v>
       </c>
       <c r="F244">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G244">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H244" t="s">
         <v>19</v>
@@ -11265,7 +11265,7 @@
         <v>23</v>
       </c>
       <c r="M244">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="N244" t="s">
         <v>23</v>
@@ -11282,7 +11282,7 @@
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E245" t="s">
         <v>18</v>
@@ -11309,7 +11309,7 @@
         <v>23</v>
       </c>
       <c r="M245">
-        <v>73.5</v>
+        <v>80.0</v>
       </c>
       <c r="N245" t="s">
         <v>23</v>
@@ -11326,16 +11326,16 @@
         <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E246" t="s">
         <v>18</v>
       </c>
       <c r="F246">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G246">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H246" t="s">
         <v>19</v>
@@ -11353,7 +11353,7 @@
         <v>23</v>
       </c>
       <c r="M246">
-        <v>35.0</v>
+        <v>73.5</v>
       </c>
       <c r="N246" t="s">
         <v>23</v>
@@ -11370,7 +11370,7 @@
         <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E247" t="s">
         <v>18</v>
@@ -11397,7 +11397,7 @@
         <v>23</v>
       </c>
       <c r="M247">
-        <v>31.5</v>
+        <v>50.0</v>
       </c>
       <c r="N247" t="s">
         <v>23</v>
@@ -11414,7 +11414,7 @@
         <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
         <v>18</v>
@@ -11441,7 +11441,7 @@
         <v>23</v>
       </c>
       <c r="M248">
-        <v>50.0</v>
+        <v>73.5</v>
       </c>
       <c r="N248" t="s">
         <v>23</v>
@@ -11458,16 +11458,16 @@
         <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E249" t="s">
         <v>18</v>
       </c>
       <c r="F249">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G249">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H249" t="s">
         <v>19</v>
@@ -11485,7 +11485,7 @@
         <v>23</v>
       </c>
       <c r="M249">
-        <v>35.0</v>
+        <v>47.5</v>
       </c>
       <c r="N249" t="s">
         <v>23</v>
@@ -11502,16 +11502,16 @@
         <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E250" t="s">
         <v>18</v>
       </c>
       <c r="F250">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G250">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
         <v>19</v>
@@ -11529,7 +11529,7 @@
         <v>23</v>
       </c>
       <c r="M250">
-        <v>73.5</v>
+        <v>28.5</v>
       </c>
       <c r="N250" t="s">
         <v>23</v>
@@ -11552,10 +11552,10 @@
         <v>18</v>
       </c>
       <c r="F251">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G251">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H251" t="s">
         <v>19</v>
@@ -11573,7 +11573,7 @@
         <v>23</v>
       </c>
       <c r="M251">
-        <v>76.5</v>
+        <v>35.0</v>
       </c>
       <c r="N251" t="s">
         <v>23</v>
@@ -11590,16 +11590,16 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E252" t="s">
         <v>18</v>
       </c>
       <c r="F252">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G252">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
@@ -11617,7 +11617,7 @@
         <v>24</v>
       </c>
       <c r="M252">
-        <v>28.0</v>
+        <v>48.0</v>
       </c>
       <c r="N252" t="s">
         <v>23</v>
@@ -11640,10 +11640,10 @@
         <v>18</v>
       </c>
       <c r="F253">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G253">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H253" t="s">
         <v>19</v>
@@ -11661,10 +11661,10 @@
         <v>24</v>
       </c>
       <c r="M253">
-        <v>5.0</v>
+        <v>39.0</v>
       </c>
       <c r="N253" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -11678,16 +11678,16 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E254" t="s">
         <v>18</v>
       </c>
       <c r="F254">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G254">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H254" t="s">
         <v>19</v>
@@ -11705,7 +11705,7 @@
         <v>24</v>
       </c>
       <c r="M254">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="N254" t="s">
         <v>23</v>
@@ -11722,7 +11722,7 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E255" t="s">
         <v>18</v>
@@ -11749,10 +11749,10 @@
         <v>24</v>
       </c>
       <c r="M255">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="N255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -11766,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E256" t="s">
         <v>18</v>
@@ -11793,10 +11793,10 @@
         <v>24</v>
       </c>
       <c r="M256">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="N256" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11810,16 +11810,16 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E257" t="s">
         <v>18</v>
       </c>
       <c r="F257">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G257">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H257" t="s">
         <v>19</v>
@@ -11837,7 +11837,7 @@
         <v>24</v>
       </c>
       <c r="M257">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="N257" t="s">
         <v>23</v>
@@ -11854,16 +11854,16 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E258" t="s">
         <v>18</v>
       </c>
       <c r="F258">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G258">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H258" t="s">
         <v>19</v>
@@ -11881,10 +11881,10 @@
         <v>24</v>
       </c>
       <c r="M258">
-        <v>38.0</v>
+        <v>7.0</v>
       </c>
       <c r="N258" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -11898,16 +11898,16 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E259" t="s">
         <v>18</v>
       </c>
       <c r="F259">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G259">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H259" t="s">
         <v>19</v>
@@ -11925,10 +11925,10 @@
         <v>24</v>
       </c>
       <c r="M259">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="N259" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -11942,7 +11942,7 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E260" t="s">
         <v>18</v>
@@ -11969,10 +11969,10 @@
         <v>24</v>
       </c>
       <c r="M260">
-        <v>20.0</v>
+        <v>38.0</v>
       </c>
       <c r="N260" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -11986,7 +11986,7 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
         <v>18</v>
@@ -12013,10 +12013,10 @@
         <v>24</v>
       </c>
       <c r="M261">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="N261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
